--- a/nodes_source_analyses/transport/transport_car_using_diesel_mix.converter.xlsx
+++ b/nodes_source_analyses/transport/transport_car_using_diesel_mix.converter.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26405"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27907"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dorinevandervlies/Projects/etdataset/nodes_source_analyses/transport/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-20" windowWidth="19200" windowHeight="23460" tabRatio="762" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="19200" windowHeight="17540" tabRatio="762" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
@@ -31,8 +36,11 @@
     <definedName name="Wp_to_kWp">#REF!</definedName>
     <definedName name="WP_to_MWp">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="140001" iterate="1" concurrentCalc="0"/>
+  <calcPr calcId="150001" iterate="1" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -193,9 +201,6 @@
     <t>Technical</t>
   </si>
   <si>
-    <t>This sheet summarizes all node attributes formatted in the way they are used by the Energy Transition Model. Use the Excel formulas to find the original data and sources for these numbers. You can also use this document to update the attribute value. Once you have finished updating, save this document and use the button to update the node attributes on ETSource.</t>
-  </si>
-  <si>
     <t>Author</t>
   </si>
   <si>
@@ -345,6 +350,10 @@
       <t>2</t>
     </r>
   </si>
+  <si>
+    <t xml:space="preserve">This sheet summarizes all node attributes formatted in the way they are used by the Energy Transition Model. Use the Excel formulas to find the original data and sources for these numbers. You can also use this document to update the attribute value. Once you have finished updating, save this document and run rake import:node NODE="nodename" to update the node attributes on ETSource. 
+</t>
+  </si>
 </sst>
 </file>
 
@@ -355,7 +364,7 @@
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="0.00000000"/>
   </numFmts>
-  <fonts count="36" x14ac:knownFonts="1">
+  <fonts count="35" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -564,11 +573,6 @@
       <color rgb="FF1F497D"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Lucida Grande"/>
     </font>
     <font>
       <sz val="12"/>
@@ -1203,7 +1207,7 @@
     <xf numFmtId="0" fontId="20" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="0" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="165" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
@@ -1262,15 +1266,15 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="31" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1291,15 +1295,15 @@
     <xf numFmtId="0" fontId="25" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="31" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="33" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="30" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="25" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1310,14 +1314,14 @@
     <xf numFmtId="0" fontId="10" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1329,46 +1333,46 @@
     <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="35" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="34" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="34" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="20" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="35" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="34" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="21" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="33" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1629,80 +1633,15 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Button" lockText="1"/>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor>
-        <xdr:from>
-          <xdr:col>6</xdr:col>
-          <xdr:colOff>50800</xdr:colOff>
-          <xdr:row>2</xdr:row>
-          <xdr:rowOff>76200</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>6</xdr:col>
-          <xdr:colOff>3835400</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>88900</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2049" name="export_data" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2049"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="27432" bIns="22860" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Lucida Grande"/>
-                  <a:ea typeface="Lucida Grande"/>
-                  <a:cs typeface="Lucida Grande"/>
-                </a:rPr>
-                <a:t>Update node attributes on ETSource</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:clientData fPrintsWithSheet="0"/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1972,7 +1911,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Cover Sheet"/>
@@ -2413,32 +2352,32 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.125" style="30" customWidth="1"/>
-    <col min="2" max="2" width="11.375" style="21" customWidth="1"/>
-    <col min="3" max="3" width="38.5" style="21" customWidth="1"/>
-    <col min="4" max="16384" width="10.625" style="21"/>
+    <col min="1" max="1" width="4.140625" style="30" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" style="21" customWidth="1"/>
+    <col min="3" max="3" width="38.42578125" style="21" customWidth="1"/>
+    <col min="4" max="16384" width="10.7109375" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="28" customFormat="1">
+    <row r="1" spans="1:3" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="26"/>
       <c r="B1" s="27"/>
       <c r="C1" s="27"/>
     </row>
-    <row r="2" spans="1:3" ht="20">
+    <row r="2" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="29" t="s">
         <v>11</v>
       </c>
       <c r="C2" s="29"/>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="2" t="s">
         <v>12</v>
@@ -2447,16 +2386,16 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="6" t="s">
         <v>14</v>
@@ -2465,199 +2404,195 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" s="104" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C9" s="105"/>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="106"/>
       <c r="C10" s="107"/>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11" s="106" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" s="108" t="s">
         <v>50</v>
       </c>
-      <c r="C11" s="108" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="16" thickBot="1">
+    </row>
+    <row r="12" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="106"/>
       <c r="C12" s="13" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="16" thickBot="1">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="106"/>
       <c r="C13" s="109" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="106"/>
       <c r="C14" s="107" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="B15" s="106"/>
       <c r="C15" s="107"/>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" s="106" t="s">
+        <v>54</v>
+      </c>
+      <c r="C16" s="110" t="s">
         <v>55</v>
       </c>
-      <c r="C16" s="110" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
       <c r="B17" s="106"/>
       <c r="C17" s="111" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
       <c r="B18" s="106"/>
       <c r="C18" s="112" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
       <c r="B19" s="106"/>
       <c r="C19" s="113" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
       <c r="B20" s="114"/>
       <c r="C20" s="115" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
       <c r="B21" s="114"/>
       <c r="C21" s="116" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
       <c r="B22" s="114"/>
       <c r="C22" s="117" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B23" s="114"/>
       <c r="C23" s="118" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
   <dimension ref="B1:J20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:K15"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.25" style="35" customWidth="1"/>
-    <col min="2" max="2" width="2.75" style="35" customWidth="1"/>
-    <col min="3" max="3" width="36.125" style="35" customWidth="1"/>
-    <col min="4" max="4" width="12.375" style="35" customWidth="1"/>
-    <col min="5" max="5" width="17.375" style="35" customWidth="1"/>
-    <col min="6" max="6" width="4.625" style="35" customWidth="1"/>
-    <col min="7" max="7" width="39.375" style="35" customWidth="1"/>
-    <col min="8" max="8" width="5.125" style="35" customWidth="1"/>
-    <col min="9" max="9" width="42.5" style="35" customWidth="1"/>
-    <col min="10" max="10" width="5.375" style="35" customWidth="1"/>
-    <col min="11" max="16384" width="10.625" style="35"/>
+    <col min="1" max="1" width="3.28515625" style="35" customWidth="1"/>
+    <col min="2" max="2" width="2.7109375" style="35" customWidth="1"/>
+    <col min="3" max="3" width="36.140625" style="35" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" style="35" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" style="35" customWidth="1"/>
+    <col min="6" max="6" width="4.5703125" style="35" customWidth="1"/>
+    <col min="7" max="7" width="39.42578125" style="35" customWidth="1"/>
+    <col min="8" max="8" width="5.140625" style="35" customWidth="1"/>
+    <col min="9" max="9" width="42.42578125" style="35" customWidth="1"/>
+    <col min="10" max="10" width="5.42578125" style="35" customWidth="1"/>
+    <col min="11" max="16384" width="10.7109375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10">
+    <row r="1" spans="2:10" x14ac:dyDescent="0.2">
       <c r="D1" s="36"/>
     </row>
-    <row r="2" spans="2:10">
+    <row r="2" spans="2:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="143" t="s">
-        <v>46</v>
+        <v>88</v>
       </c>
       <c r="C2" s="144"/>
       <c r="D2" s="144"/>
-      <c r="E2" s="145"/>
-      <c r="F2" s="36"/>
+      <c r="E2" s="144"/>
+      <c r="F2" s="145"/>
       <c r="G2" s="36"/>
     </row>
-    <row r="3" spans="2:10">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B3" s="146"/>
       <c r="C3" s="147"/>
       <c r="D3" s="147"/>
-      <c r="E3" s="148"/>
-      <c r="F3" s="36"/>
+      <c r="E3" s="147"/>
+      <c r="F3" s="148"/>
       <c r="G3" s="36"/>
     </row>
-    <row r="4" spans="2:10">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B4" s="146"/>
       <c r="C4" s="147"/>
       <c r="D4" s="147"/>
-      <c r="E4" s="148"/>
-      <c r="F4" s="36"/>
+      <c r="E4" s="147"/>
+      <c r="F4" s="148"/>
       <c r="G4" s="36"/>
     </row>
-    <row r="5" spans="2:10">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B5" s="149"/>
       <c r="C5" s="150"/>
       <c r="D5" s="150"/>
-      <c r="E5" s="151"/>
-    </row>
-    <row r="6" spans="2:10" ht="16" thickBot="1">
+      <c r="E5" s="150"/>
+      <c r="F5" s="151"/>
+    </row>
+    <row r="6" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="103"/>
       <c r="C6" s="103"/>
       <c r="D6" s="103"/>
       <c r="E6" s="103"/>
     </row>
-    <row r="7" spans="2:10">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B7" s="37"/>
       <c r="C7" s="20"/>
       <c r="D7" s="20"/>
@@ -2668,7 +2603,7 @@
       <c r="I7" s="20"/>
       <c r="J7" s="38"/>
     </row>
-    <row r="8" spans="2:10" s="25" customFormat="1">
+    <row r="8" spans="2:10" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="23"/>
       <c r="C8" s="16" t="s">
         <v>20</v>
@@ -2689,7 +2624,7 @@
       </c>
       <c r="J8" s="99"/>
     </row>
-    <row r="9" spans="2:10" s="25" customFormat="1">
+    <row r="9" spans="2:10" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B9" s="24"/>
       <c r="C9" s="13"/>
       <c r="D9" s="32"/>
@@ -2700,7 +2635,7 @@
       <c r="I9" s="13"/>
       <c r="J9" s="14"/>
     </row>
-    <row r="10" spans="2:10" s="25" customFormat="1" ht="16" thickBot="1">
+    <row r="10" spans="2:10" s="25" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="24"/>
       <c r="C10" s="13" t="s">
         <v>45</v>
@@ -2713,13 +2648,13 @@
       <c r="I10" s="13"/>
       <c r="J10" s="14"/>
     </row>
-    <row r="11" spans="2:10" s="25" customFormat="1" ht="16" thickBot="1">
+    <row r="11" spans="2:10" s="25" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="24"/>
       <c r="C11" s="69" t="s">
         <v>31</v>
       </c>
       <c r="D11" s="22" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E11" s="142">
         <f>'Research data'!H7</f>
@@ -2727,15 +2662,15 @@
       </c>
       <c r="F11" s="39"/>
       <c r="G11" s="128" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H11" s="31"/>
       <c r="I11" s="141" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J11" s="14"/>
     </row>
-    <row r="12" spans="2:10">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B12" s="40"/>
       <c r="C12" s="36"/>
       <c r="D12" s="101"/>
@@ -2746,7 +2681,7 @@
       <c r="I12" s="70"/>
       <c r="J12" s="100"/>
     </row>
-    <row r="13" spans="2:10" ht="16" thickBot="1">
+    <row r="13" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B13" s="40"/>
       <c r="C13" s="13" t="s">
         <v>5</v>
@@ -2759,7 +2694,7 @@
       <c r="I13" s="70"/>
       <c r="J13" s="100"/>
     </row>
-    <row r="14" spans="2:10" ht="16" thickBot="1">
+    <row r="14" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B14" s="40"/>
       <c r="C14" s="39" t="s">
         <v>23</v>
@@ -2777,11 +2712,11 @@
       </c>
       <c r="H14" s="39"/>
       <c r="I14" s="121" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J14" s="100"/>
     </row>
-    <row r="15" spans="2:10" ht="16" thickBot="1">
+    <row r="15" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B15" s="40"/>
       <c r="C15" s="39" t="s">
         <v>22</v>
@@ -2800,7 +2735,7 @@
       </c>
       <c r="J15" s="100"/>
     </row>
-    <row r="16" spans="2:10" ht="16" thickBot="1">
+    <row r="16" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B16" s="42"/>
       <c r="C16" s="43"/>
       <c r="D16" s="43"/>
@@ -2811,50 +2746,13 @@
       <c r="I16" s="43"/>
       <c r="J16" s="44"/>
     </row>
-    <row r="20" ht="15" customHeight="1"/>
+    <row r="20" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B2:E5"/>
+    <mergeCell ref="B2:F5"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x14">
-      <controls>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="2049" r:id="rId3" name="export_data">
-              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
-                <anchor moveWithCells="1" sizeWithCells="1">
-                  <from>
-                    <xdr:col>6</xdr:col>
-                    <xdr:colOff>50800</xdr:colOff>
-                    <xdr:row>2</xdr:row>
-                    <xdr:rowOff>76200</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>6</xdr:col>
-                    <xdr:colOff>3835400</xdr:colOff>
-                    <xdr:row>3</xdr:row>
-                    <xdr:rowOff>88900</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-          <mc:Fallback/>
-        </mc:AlternateContent>
-      </controls>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -2869,35 +2767,34 @@
       <selection activeCell="V7" sqref="V7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.5" style="45" customWidth="1"/>
-    <col min="2" max="2" width="3.375" style="45" customWidth="1"/>
-    <col min="3" max="3" width="35.125" style="45" customWidth="1"/>
-    <col min="4" max="4" width="16.625" style="45" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="13.875" style="45" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="11.5" style="45" customWidth="1"/>
-    <col min="7" max="7" width="3.25" style="45" customWidth="1"/>
-    <col min="8" max="8" width="9.625" style="45" customWidth="1"/>
-    <col min="9" max="9" width="2.625" style="45" customWidth="1"/>
-    <col min="10" max="10" width="10.5" style="45" customWidth="1"/>
-    <col min="11" max="11" width="2.5" style="45" customWidth="1"/>
-    <col min="12" max="12" width="9.25" style="45" customWidth="1"/>
-    <col min="13" max="13" width="2.375" style="45" customWidth="1"/>
-    <col min="14" max="14" width="8.625" style="45" customWidth="1"/>
-    <col min="15" max="15" width="2.125" style="45" customWidth="1"/>
-    <col min="16" max="16" width="9.875" style="45" customWidth="1"/>
-    <col min="17" max="17" width="2.875" style="45" customWidth="1"/>
-    <col min="18" max="18" width="10.875" style="45" customWidth="1"/>
-    <col min="19" max="19" width="2.25" style="45" customWidth="1"/>
-    <col min="20" max="20" width="10.875" style="45" customWidth="1"/>
-    <col min="21" max="21" width="2.5" style="45" customWidth="1"/>
-    <col min="22" max="22" width="51.25" style="45" customWidth="1"/>
-    <col min="23" max="16384" width="10.625" style="45"/>
+    <col min="1" max="2" width="3.42578125" style="45" customWidth="1"/>
+    <col min="3" max="3" width="35.140625" style="45" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" style="45" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" style="45" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" style="45" customWidth="1"/>
+    <col min="7" max="7" width="3.28515625" style="45" customWidth="1"/>
+    <col min="8" max="8" width="9.5703125" style="45" customWidth="1"/>
+    <col min="9" max="9" width="2.5703125" style="45" customWidth="1"/>
+    <col min="10" max="10" width="10.42578125" style="45" customWidth="1"/>
+    <col min="11" max="11" width="2.42578125" style="45" customWidth="1"/>
+    <col min="12" max="12" width="9.28515625" style="45" customWidth="1"/>
+    <col min="13" max="13" width="2.42578125" style="45" customWidth="1"/>
+    <col min="14" max="14" width="8.5703125" style="45" customWidth="1"/>
+    <col min="15" max="15" width="2.140625" style="45" customWidth="1"/>
+    <col min="16" max="16" width="9.85546875" style="45" customWidth="1"/>
+    <col min="17" max="17" width="2.85546875" style="45" customWidth="1"/>
+    <col min="18" max="18" width="10.85546875" style="45" customWidth="1"/>
+    <col min="19" max="19" width="2.28515625" style="45" customWidth="1"/>
+    <col min="20" max="20" width="10.85546875" style="45" customWidth="1"/>
+    <col min="21" max="21" width="2.42578125" style="45" customWidth="1"/>
+    <col min="22" max="22" width="51.28515625" style="45" customWidth="1"/>
+    <col min="23" max="16384" width="10.7109375" style="45"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:22" ht="16" thickBot="1"/>
-    <row r="3" spans="2:22">
+    <row r="2" spans="2:22" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B3" s="46"/>
       <c r="C3" s="47"/>
       <c r="D3" s="47"/>
@@ -2920,7 +2817,7 @@
       <c r="U3" s="47"/>
       <c r="V3" s="47"/>
     </row>
-    <row r="4" spans="2:22" s="25" customFormat="1">
+    <row r="4" spans="2:22" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B4" s="24"/>
       <c r="C4" s="95" t="s">
         <v>44</v>
@@ -2948,22 +2845,22 @@
       </c>
       <c r="O4" s="95"/>
       <c r="P4" s="95" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Q4" s="95"/>
       <c r="R4" s="95" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="S4" s="95"/>
       <c r="T4" s="95" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="U4" s="95"/>
       <c r="V4" s="95" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="5" spans="2:22" ht="18" customHeight="1">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="2:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="48"/>
       <c r="C5" s="56"/>
       <c r="D5" s="56"/>
@@ -2982,7 +2879,7 @@
       <c r="T5" s="49"/>
       <c r="V5" s="64"/>
     </row>
-    <row r="6" spans="2:22" ht="18" customHeight="1" thickBot="1">
+    <row r="6" spans="2:22" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="48"/>
       <c r="C6" s="12" t="s">
         <v>45</v>
@@ -3007,7 +2904,7 @@
       <c r="U6" s="49"/>
       <c r="V6" s="62"/>
     </row>
-    <row r="7" spans="2:22" ht="16" thickBot="1">
+    <row r="7" spans="2:22" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B7" s="48"/>
       <c r="C7" s="130" t="s">
         <v>31</v>
@@ -3015,7 +2912,7 @@
       <c r="D7" s="57"/>
       <c r="E7" s="57"/>
       <c r="F7" s="131" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G7" s="96"/>
       <c r="H7" s="134">
@@ -3042,10 +2939,10 @@
       </c>
       <c r="U7" s="49"/>
       <c r="V7" s="140" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="8" spans="2:22">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B8" s="48"/>
       <c r="C8" s="57"/>
       <c r="D8" s="57"/>
@@ -3068,7 +2965,7 @@
       <c r="U8" s="49"/>
       <c r="V8" s="68"/>
     </row>
-    <row r="9" spans="2:22" ht="16" thickBot="1">
+    <row r="9" spans="2:22" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B9" s="48"/>
       <c r="C9" s="12" t="s">
         <v>5</v>
@@ -3093,7 +2990,7 @@
       <c r="U9" s="49"/>
       <c r="V9" s="62"/>
     </row>
-    <row r="10" spans="2:22" ht="16" thickBot="1">
+    <row r="10" spans="2:22" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="48"/>
       <c r="C10" s="57" t="s">
         <v>3</v>
@@ -3126,7 +3023,7 @@
       <c r="U10" s="49"/>
       <c r="V10" s="68"/>
     </row>
-    <row r="11" spans="2:22">
+    <row r="11" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B11" s="48"/>
       <c r="C11" s="33"/>
       <c r="D11" s="33"/>
@@ -3149,7 +3046,7 @@
       <c r="U11" s="49"/>
       <c r="V11" s="52"/>
     </row>
-    <row r="12" spans="2:22" ht="16" thickBot="1">
+    <row r="12" spans="2:22" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B12" s="48"/>
       <c r="C12" s="12" t="s">
         <v>41</v>
@@ -3174,10 +3071,10 @@
       <c r="U12" s="49"/>
       <c r="V12" s="64"/>
     </row>
-    <row r="13" spans="2:22" ht="16" thickBot="1">
+    <row r="13" spans="2:22" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B13" s="48"/>
       <c r="C13" s="120" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D13" s="12"/>
       <c r="E13" s="12"/>
@@ -3213,7 +3110,7 @@
       <c r="U13" s="53"/>
       <c r="V13" s="67"/>
     </row>
-    <row r="14" spans="2:22" ht="16" thickBot="1">
+    <row r="14" spans="2:22" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B14" s="48"/>
       <c r="C14" s="57" t="s">
         <v>42</v>
@@ -3249,11 +3146,6 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -3268,22 +3160,22 @@
       <selection activeCell="F23" sqref="F23:G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="33.125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="33.140625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.5" style="71" customWidth="1"/>
+    <col min="1" max="1" width="3.42578125" style="71" customWidth="1"/>
     <col min="2" max="2" width="4" style="71" customWidth="1"/>
-    <col min="3" max="3" width="27.875" style="71" customWidth="1"/>
-    <col min="4" max="4" width="16.125" style="71" customWidth="1"/>
-    <col min="5" max="5" width="10.25" style="71" customWidth="1"/>
-    <col min="6" max="7" width="13.25" style="71" customWidth="1"/>
-    <col min="8" max="8" width="12.75" style="76" customWidth="1"/>
-    <col min="9" max="9" width="32.625" style="76" customWidth="1"/>
-    <col min="10" max="10" width="98.375" style="71" customWidth="1"/>
-    <col min="11" max="16384" width="33.125" style="71"/>
+    <col min="3" max="3" width="27.85546875" style="71" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" style="71" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" style="71" customWidth="1"/>
+    <col min="6" max="7" width="13.28515625" style="71" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="76" customWidth="1"/>
+    <col min="9" max="9" width="32.5703125" style="76" customWidth="1"/>
+    <col min="10" max="10" width="98.42578125" style="71" customWidth="1"/>
+    <col min="11" max="16384" width="33.140625" style="71"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="16" thickBot="1"/>
-    <row r="2" spans="2:10">
+    <row r="1" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B2" s="72"/>
       <c r="C2" s="73"/>
       <c r="D2" s="73"/>
@@ -3294,7 +3186,7 @@
       <c r="I2" s="77"/>
       <c r="J2" s="73"/>
     </row>
-    <row r="3" spans="2:10">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B3" s="74"/>
       <c r="C3" s="13" t="s">
         <v>16</v>
@@ -3307,7 +3199,7 @@
       <c r="I3" s="18"/>
       <c r="J3" s="70"/>
     </row>
-    <row r="4" spans="2:10">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B4" s="74"/>
       <c r="C4" s="70"/>
       <c r="D4" s="70"/>
@@ -3318,7 +3210,7 @@
       <c r="I4" s="78"/>
       <c r="J4" s="70"/>
     </row>
-    <row r="5" spans="2:10">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B5" s="79"/>
       <c r="C5" s="15" t="s">
         <v>17</v>
@@ -3333,19 +3225,19 @@
         <v>18</v>
       </c>
       <c r="G5" s="15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H5" s="19" t="s">
         <v>19</v>
       </c>
       <c r="I5" s="19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J5" s="15" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="2:10">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B6" s="74"/>
       <c r="C6" s="13"/>
       <c r="D6" s="13"/>
@@ -3356,7 +3248,7 @@
       <c r="I6" s="18"/>
       <c r="J6" s="13"/>
     </row>
-    <row r="7" spans="2:10">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B7" s="74"/>
       <c r="C7" s="80"/>
       <c r="D7" s="93" t="s">
@@ -3373,13 +3265,13 @@
       </c>
       <c r="H7" s="75"/>
       <c r="I7" s="127" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J7" s="50" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="2:10">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B8" s="74"/>
       <c r="C8" s="80" t="s">
         <v>6</v>
@@ -3392,7 +3284,7 @@
       <c r="I8" s="70"/>
       <c r="J8" s="70"/>
     </row>
-    <row r="9" spans="2:10">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B9" s="74"/>
       <c r="C9" s="80"/>
       <c r="D9" s="70"/>
@@ -3403,7 +3295,7 @@
       <c r="I9" s="70"/>
       <c r="J9" s="70"/>
     </row>
-    <row r="10" spans="2:10">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B10" s="74"/>
       <c r="C10" s="81"/>
       <c r="D10" s="70" t="s">
@@ -3420,13 +3312,13 @@
       </c>
       <c r="H10" s="75"/>
       <c r="I10" s="127" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J10" s="126" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="2:10">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B11" s="74"/>
       <c r="C11" s="80" t="s">
         <v>6</v>
@@ -3438,7 +3330,7 @@
       <c r="H11" s="75"/>
       <c r="I11" s="70"/>
     </row>
-    <row r="12" spans="2:10">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B12" s="74"/>
       <c r="C12" s="80"/>
       <c r="D12" s="70"/>
@@ -3448,7 +3340,7 @@
       <c r="H12" s="75"/>
       <c r="I12" s="70"/>
     </row>
-    <row r="13" spans="2:10">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B13" s="74"/>
       <c r="C13" s="81"/>
       <c r="D13" s="70" t="s">
@@ -3467,7 +3359,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="2:10">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B14" s="74"/>
       <c r="C14" s="80" t="s">
         <v>6</v>
@@ -3480,7 +3372,7 @@
       <c r="I14" s="70"/>
       <c r="J14" s="70"/>
     </row>
-    <row r="15" spans="2:10">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B15" s="74"/>
       <c r="C15" s="81"/>
       <c r="D15" s="70"/>
@@ -3491,13 +3383,13 @@
       <c r="I15" s="70"/>
       <c r="J15" s="70"/>
     </row>
-    <row r="16" spans="2:10">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B16" s="74"/>
       <c r="C16" s="129" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D16" s="122" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E16" s="82" t="s">
         <v>7</v>
@@ -3510,13 +3402,13 @@
       </c>
       <c r="H16" s="70"/>
       <c r="I16" s="127" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J16" s="125" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B17" s="74"/>
       <c r="C17" s="80" t="s">
         <v>3</v>
@@ -3529,7 +3421,7 @@
       <c r="I17" s="70"/>
       <c r="J17" s="70"/>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B18" s="74"/>
       <c r="C18" s="81"/>
       <c r="D18" s="70"/>
@@ -3540,11 +3432,11 @@
       <c r="I18" s="70"/>
       <c r="J18" s="70"/>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B19" s="74"/>
       <c r="C19" s="80"/>
       <c r="D19" s="125" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E19" s="70" t="s">
         <v>7</v>
@@ -3557,13 +3449,13 @@
       </c>
       <c r="H19" s="70"/>
       <c r="I19" s="127" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J19" s="125" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B20" s="74"/>
       <c r="C20" s="80" t="s">
         <v>26</v>
@@ -3576,10 +3468,10 @@
       <c r="I20" s="70"/>
       <c r="J20" s="70"/>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B21" s="74"/>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="135"/>
       <c r="B22" s="136"/>
       <c r="C22" s="135"/>
@@ -3591,14 +3483,14 @@
       <c r="I22" s="137"/>
       <c r="J22" s="135"/>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="132"/>
       <c r="B23" s="133"/>
       <c r="C23" s="138" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D23" s="91" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E23" s="132" t="s">
         <v>7</v>
@@ -3613,20 +3505,15 @@
         <v>42326</v>
       </c>
       <c r="I23" s="132" t="s">
+        <v>84</v>
+      </c>
+      <c r="J23" s="83" t="s">
         <v>85</v>
-      </c>
-      <c r="J23" s="83" t="s">
-        <v>86</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -3641,21 +3528,21 @@
       <selection activeCell="C101" sqref="C101"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.75" style="83" customWidth="1"/>
-    <col min="2" max="2" width="3.5" style="83" customWidth="1"/>
-    <col min="3" max="3" width="9.375" style="83" customWidth="1"/>
-    <col min="4" max="4" width="3.125" style="83" customWidth="1"/>
-    <col min="5" max="5" width="12.5" style="83" customWidth="1"/>
-    <col min="6" max="6" width="3.875" style="83" customWidth="1"/>
-    <col min="7" max="13" width="10.625" style="83"/>
-    <col min="14" max="14" width="7.125" style="83" customWidth="1"/>
-    <col min="15" max="16384" width="10.625" style="83"/>
+    <col min="1" max="1" width="3.7109375" style="83" customWidth="1"/>
+    <col min="2" max="2" width="3.42578125" style="83" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" style="83" customWidth="1"/>
+    <col min="4" max="4" width="3.140625" style="83" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" style="83" customWidth="1"/>
+    <col min="6" max="6" width="3.85546875" style="83" customWidth="1"/>
+    <col min="7" max="13" width="10.7109375" style="83"/>
+    <col min="14" max="14" width="7.140625" style="83" customWidth="1"/>
+    <col min="15" max="16384" width="10.7109375" style="83"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="16" thickBot="1"/>
-    <row r="2" spans="1:14">
+    <row r="1" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B2" s="84"/>
       <c r="C2" s="85"/>
       <c r="D2" s="85"/>
@@ -3670,7 +3557,7 @@
       <c r="M2" s="85"/>
       <c r="N2" s="86"/>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="87"/>
       <c r="B3" s="124"/>
       <c r="C3" s="119" t="s">
@@ -3690,7 +3577,7 @@
       <c r="M3" s="88"/>
       <c r="N3" s="123"/>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B4" s="90"/>
       <c r="C4" s="91"/>
       <c r="D4" s="91"/>
@@ -3705,7 +3592,7 @@
       <c r="M4" s="91"/>
       <c r="N4" s="89"/>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B5" s="90"/>
       <c r="C5" s="91"/>
       <c r="D5" s="91"/>
@@ -3720,7 +3607,7 @@
       <c r="M5" s="91"/>
       <c r="N5" s="89"/>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="90"/>
       <c r="C6" s="91"/>
       <c r="D6" s="91"/>
@@ -3735,7 +3622,7 @@
       <c r="M6" s="91"/>
       <c r="N6" s="89"/>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B7" s="90"/>
       <c r="C7" s="91"/>
       <c r="D7" s="91"/>
@@ -3750,7 +3637,7 @@
       <c r="M7" s="91"/>
       <c r="N7" s="89"/>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B8" s="90"/>
       <c r="C8" s="91"/>
       <c r="D8" s="91"/>
@@ -3765,7 +3652,7 @@
       <c r="M8" s="91"/>
       <c r="N8" s="89"/>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B9" s="90"/>
       <c r="C9" s="91" t="s">
         <v>29</v>
@@ -3786,7 +3673,7 @@
       <c r="M9" s="91"/>
       <c r="N9" s="89"/>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B10" s="90"/>
       <c r="C10" s="91"/>
       <c r="D10" s="91"/>
@@ -3801,7 +3688,7 @@
       <c r="M10" s="91"/>
       <c r="N10" s="89"/>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B11" s="90"/>
       <c r="C11" s="91"/>
       <c r="D11" s="91"/>
@@ -3816,7 +3703,7 @@
       <c r="M11" s="91"/>
       <c r="N11" s="89"/>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B12" s="90"/>
       <c r="C12" s="91"/>
       <c r="D12" s="91"/>
@@ -3831,7 +3718,7 @@
       <c r="M12" s="91"/>
       <c r="N12" s="89"/>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B13" s="90"/>
       <c r="C13" s="91"/>
       <c r="D13" s="91"/>
@@ -3846,7 +3733,7 @@
       <c r="M13" s="91"/>
       <c r="N13" s="89"/>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B14" s="90"/>
       <c r="C14" s="91"/>
       <c r="D14" s="91"/>
@@ -3861,7 +3748,7 @@
       <c r="M14" s="91"/>
       <c r="N14" s="89"/>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B15" s="90"/>
       <c r="C15" s="91"/>
       <c r="D15" s="91"/>
@@ -3876,7 +3763,7 @@
       <c r="M15" s="91"/>
       <c r="N15" s="89"/>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B16" s="90"/>
       <c r="C16" s="91"/>
       <c r="D16" s="91"/>
@@ -3891,7 +3778,7 @@
       <c r="M16" s="91"/>
       <c r="N16" s="89"/>
     </row>
-    <row r="17" spans="2:14">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B17" s="90"/>
       <c r="C17" s="91"/>
       <c r="D17" s="91"/>
@@ -3906,7 +3793,7 @@
       <c r="M17" s="91"/>
       <c r="N17" s="89"/>
     </row>
-    <row r="18" spans="2:14">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B18" s="90"/>
       <c r="C18" s="91"/>
       <c r="D18" s="91"/>
@@ -3921,7 +3808,7 @@
       <c r="M18" s="91"/>
       <c r="N18" s="89"/>
     </row>
-    <row r="19" spans="2:14">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B19" s="90"/>
       <c r="C19" s="91"/>
       <c r="D19" s="91"/>
@@ -3936,7 +3823,7 @@
       <c r="M19" s="91"/>
       <c r="N19" s="89"/>
     </row>
-    <row r="20" spans="2:14">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B20" s="90"/>
       <c r="C20" s="91"/>
       <c r="D20" s="91"/>
@@ -3951,7 +3838,7 @@
       <c r="M20" s="91"/>
       <c r="N20" s="89"/>
     </row>
-    <row r="21" spans="2:14">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B21" s="90"/>
       <c r="C21" s="91"/>
       <c r="D21" s="91"/>
@@ -3966,7 +3853,7 @@
       <c r="M21" s="91"/>
       <c r="N21" s="89"/>
     </row>
-    <row r="22" spans="2:14">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B22" s="90"/>
       <c r="C22" s="91"/>
       <c r="D22" s="91"/>
@@ -3981,7 +3868,7 @@
       <c r="M22" s="91"/>
       <c r="N22" s="89"/>
     </row>
-    <row r="23" spans="2:14">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B23" s="90"/>
       <c r="C23" s="91"/>
       <c r="D23" s="91"/>
@@ -3996,7 +3883,7 @@
       <c r="M23" s="91"/>
       <c r="N23" s="89"/>
     </row>
-    <row r="24" spans="2:14">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B24" s="90"/>
       <c r="C24" s="91"/>
       <c r="D24" s="91"/>
@@ -4011,7 +3898,7 @@
       <c r="M24" s="91"/>
       <c r="N24" s="89"/>
     </row>
-    <row r="25" spans="2:14">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B25" s="90"/>
       <c r="C25" s="91"/>
       <c r="D25" s="91"/>
@@ -4026,7 +3913,7 @@
       <c r="M25" s="91"/>
       <c r="N25" s="89"/>
     </row>
-    <row r="26" spans="2:14">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B26" s="90"/>
       <c r="C26" s="91"/>
       <c r="D26" s="91"/>
@@ -4041,7 +3928,7 @@
       <c r="M26" s="91"/>
       <c r="N26" s="89"/>
     </row>
-    <row r="27" spans="2:14">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B27" s="90"/>
       <c r="C27" s="91"/>
       <c r="D27" s="91"/>
@@ -4056,7 +3943,7 @@
       <c r="M27" s="91"/>
       <c r="N27" s="89"/>
     </row>
-    <row r="28" spans="2:14">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B28" s="90"/>
       <c r="C28" s="91"/>
       <c r="D28" s="91"/>
@@ -4071,7 +3958,7 @@
       <c r="M28" s="91"/>
       <c r="N28" s="89"/>
     </row>
-    <row r="29" spans="2:14">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B29" s="90"/>
       <c r="C29" s="91"/>
       <c r="D29" s="91"/>
@@ -4086,7 +3973,7 @@
       <c r="M29" s="91"/>
       <c r="N29" s="89"/>
     </row>
-    <row r="30" spans="2:14">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B30" s="90"/>
       <c r="C30" s="91" t="s">
         <v>27</v>
@@ -4103,7 +3990,7 @@
       <c r="M30" s="91"/>
       <c r="N30" s="89"/>
     </row>
-    <row r="31" spans="2:14">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B31" s="90"/>
       <c r="C31" s="91"/>
       <c r="D31" s="91"/>
@@ -4118,7 +4005,7 @@
       <c r="M31" s="91"/>
       <c r="N31" s="89"/>
     </row>
-    <row r="32" spans="2:14">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B32" s="90"/>
       <c r="C32" s="91"/>
       <c r="D32" s="91"/>
@@ -4133,7 +4020,7 @@
       <c r="M32" s="91"/>
       <c r="N32" s="89"/>
     </row>
-    <row r="33" spans="2:14">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B33" s="90"/>
       <c r="C33" s="91"/>
       <c r="D33" s="91"/>
@@ -4148,7 +4035,7 @@
       <c r="M33" s="91"/>
       <c r="N33" s="89"/>
     </row>
-    <row r="34" spans="2:14">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B34" s="90"/>
       <c r="C34" s="91"/>
       <c r="D34" s="91"/>
@@ -4163,7 +4050,7 @@
       <c r="M34" s="91"/>
       <c r="N34" s="89"/>
     </row>
-    <row r="35" spans="2:14">
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B35" s="90"/>
       <c r="C35" s="91"/>
       <c r="D35" s="91"/>
@@ -4178,7 +4065,7 @@
       <c r="M35" s="91"/>
       <c r="N35" s="89"/>
     </row>
-    <row r="36" spans="2:14">
+    <row r="36" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B36" s="90"/>
       <c r="C36" s="91"/>
       <c r="D36" s="91"/>
@@ -4193,7 +4080,7 @@
       <c r="M36" s="91"/>
       <c r="N36" s="89"/>
     </row>
-    <row r="37" spans="2:14">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="90"/>
       <c r="C37" s="91"/>
       <c r="D37" s="91"/>
@@ -4208,7 +4095,7 @@
       <c r="M37" s="91"/>
       <c r="N37" s="89"/>
     </row>
-    <row r="38" spans="2:14">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B38" s="90"/>
       <c r="C38" s="91"/>
       <c r="D38" s="91"/>
@@ -4223,7 +4110,7 @@
       <c r="M38" s="91"/>
       <c r="N38" s="89"/>
     </row>
-    <row r="39" spans="2:14">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B39" s="90"/>
       <c r="C39" s="91"/>
       <c r="D39" s="91"/>
@@ -4238,7 +4125,7 @@
       <c r="M39" s="91"/>
       <c r="N39" s="89"/>
     </row>
-    <row r="40" spans="2:14">
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B40" s="90"/>
       <c r="C40" s="91"/>
       <c r="D40" s="91"/>
@@ -4257,7 +4144,7 @@
       <c r="M40" s="91"/>
       <c r="N40" s="89"/>
     </row>
-    <row r="41" spans="2:14">
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B41" s="90"/>
       <c r="C41" s="91"/>
       <c r="D41" s="91"/>
@@ -4272,7 +4159,7 @@
       <c r="M41" s="91"/>
       <c r="N41" s="89"/>
     </row>
-    <row r="42" spans="2:14">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B42" s="90"/>
       <c r="C42" s="91"/>
       <c r="D42" s="91"/>
@@ -4287,7 +4174,7 @@
       <c r="M42" s="91"/>
       <c r="N42" s="89"/>
     </row>
-    <row r="43" spans="2:14">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B43" s="90"/>
       <c r="C43" s="91"/>
       <c r="D43" s="91"/>
@@ -4302,7 +4189,7 @@
       <c r="M43" s="91"/>
       <c r="N43" s="89"/>
     </row>
-    <row r="44" spans="2:14">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B44" s="90"/>
       <c r="C44" s="91"/>
       <c r="D44" s="91"/>
@@ -4317,7 +4204,7 @@
       <c r="M44" s="91"/>
       <c r="N44" s="89"/>
     </row>
-    <row r="45" spans="2:14">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B45" s="90"/>
       <c r="C45" s="91" t="s">
         <v>39</v>
@@ -4334,7 +4221,7 @@
       <c r="M45" s="91"/>
       <c r="N45" s="89"/>
     </row>
-    <row r="46" spans="2:14">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B46" s="90"/>
       <c r="C46" s="91"/>
       <c r="D46" s="91"/>
@@ -4349,7 +4236,7 @@
       <c r="M46" s="91"/>
       <c r="N46" s="89"/>
     </row>
-    <row r="47" spans="2:14">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B47" s="90"/>
       <c r="C47" s="91"/>
       <c r="D47" s="91"/>
@@ -4368,7 +4255,7 @@
       <c r="M47" s="91"/>
       <c r="N47" s="89"/>
     </row>
-    <row r="48" spans="2:14">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B48" s="90"/>
       <c r="C48" s="91"/>
       <c r="D48" s="91"/>
@@ -4383,7 +4270,7 @@
       <c r="M48" s="91"/>
       <c r="N48" s="89"/>
     </row>
-    <row r="49" spans="2:14">
+    <row r="49" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B49" s="90"/>
       <c r="C49" s="91"/>
       <c r="D49" s="91"/>
@@ -4398,7 +4285,7 @@
       <c r="M49" s="91"/>
       <c r="N49" s="89"/>
     </row>
-    <row r="50" spans="2:14">
+    <row r="50" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B50" s="90"/>
       <c r="C50" s="91"/>
       <c r="D50" s="91"/>
@@ -4413,10 +4300,10 @@
       <c r="M50" s="91"/>
       <c r="N50" s="89"/>
     </row>
-    <row r="51" spans="2:14">
+    <row r="51" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B51" s="90"/>
       <c r="C51" s="91" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D51" s="91"/>
       <c r="E51" s="91"/>
@@ -4430,10 +4317,10 @@
       <c r="M51" s="91"/>
       <c r="N51" s="89"/>
     </row>
-    <row r="52" spans="2:14">
+    <row r="52" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B52" s="90"/>
       <c r="C52" s="91" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D52" s="91"/>
       <c r="E52" s="91"/>
@@ -4447,7 +4334,7 @@
       <c r="M52" s="91"/>
       <c r="N52" s="89"/>
     </row>
-    <row r="53" spans="2:14">
+    <row r="53" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B53" s="90"/>
       <c r="C53" s="91"/>
       <c r="D53" s="91"/>
@@ -4462,7 +4349,7 @@
       <c r="M53" s="91"/>
       <c r="N53" s="89"/>
     </row>
-    <row r="54" spans="2:14">
+    <row r="54" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B54" s="90"/>
       <c r="C54" s="91"/>
       <c r="D54" s="91"/>
@@ -4470,7 +4357,7 @@
         <v>13</v>
       </c>
       <c r="F54" s="91" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G54" s="91"/>
       <c r="H54" s="91"/>
@@ -4481,7 +4368,7 @@
       <c r="M54" s="91"/>
       <c r="N54" s="89"/>
     </row>
-    <row r="55" spans="2:14">
+    <row r="55" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B55" s="90"/>
       <c r="C55" s="91"/>
       <c r="D55" s="91"/>
@@ -4496,7 +4383,7 @@
       <c r="M55" s="91"/>
       <c r="N55" s="89"/>
     </row>
-    <row r="56" spans="2:14">
+    <row r="56" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B56" s="90"/>
       <c r="C56" s="91"/>
       <c r="D56" s="91"/>
@@ -4511,7 +4398,7 @@
       <c r="M56" s="91"/>
       <c r="N56" s="89"/>
     </row>
-    <row r="57" spans="2:14">
+    <row r="57" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B57" s="90"/>
       <c r="C57" s="91"/>
       <c r="D57" s="91"/>
@@ -4526,7 +4413,7 @@
       <c r="M57" s="91"/>
       <c r="N57" s="89"/>
     </row>
-    <row r="58" spans="2:14">
+    <row r="58" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B58" s="90"/>
       <c r="C58" s="91"/>
       <c r="D58" s="91"/>
@@ -4541,7 +4428,7 @@
       <c r="M58" s="91"/>
       <c r="N58" s="89"/>
     </row>
-    <row r="59" spans="2:14">
+    <row r="59" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B59" s="90"/>
       <c r="C59" s="91"/>
       <c r="D59" s="91"/>
@@ -4556,7 +4443,7 @@
       <c r="M59" s="91"/>
       <c r="N59" s="89"/>
     </row>
-    <row r="60" spans="2:14">
+    <row r="60" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B60" s="90"/>
       <c r="C60" s="91"/>
       <c r="D60" s="91"/>
@@ -4571,7 +4458,7 @@
       <c r="M60" s="91"/>
       <c r="N60" s="89"/>
     </row>
-    <row r="61" spans="2:14">
+    <row r="61" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B61" s="90"/>
       <c r="C61" s="91"/>
       <c r="D61" s="91"/>
@@ -4586,7 +4473,7 @@
       <c r="M61" s="91"/>
       <c r="N61" s="89"/>
     </row>
-    <row r="62" spans="2:14">
+    <row r="62" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B62" s="90"/>
       <c r="C62" s="91"/>
       <c r="D62" s="91"/>
@@ -4601,7 +4488,7 @@
       <c r="M62" s="91"/>
       <c r="N62" s="89"/>
     </row>
-    <row r="63" spans="2:14">
+    <row r="63" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B63" s="90"/>
       <c r="C63" s="91"/>
       <c r="D63" s="91"/>
@@ -4616,7 +4503,7 @@
       <c r="M63" s="91"/>
       <c r="N63" s="89"/>
     </row>
-    <row r="64" spans="2:14">
+    <row r="64" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B64" s="90"/>
       <c r="C64" s="91"/>
       <c r="D64" s="91"/>
@@ -4631,7 +4518,7 @@
       <c r="M64" s="91"/>
       <c r="N64" s="89"/>
     </row>
-    <row r="65" spans="2:14">
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B65" s="90"/>
       <c r="C65" s="91"/>
       <c r="D65" s="91"/>
@@ -4646,7 +4533,7 @@
       <c r="M65" s="91"/>
       <c r="N65" s="89"/>
     </row>
-    <row r="66" spans="2:14">
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B66" s="90"/>
       <c r="H66" s="91"/>
       <c r="I66" s="91"/>
@@ -4656,10 +4543,10 @@
       <c r="M66" s="91"/>
       <c r="N66" s="89"/>
     </row>
-    <row r="67" spans="2:14">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B67" s="90"/>
       <c r="C67" s="83" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H67" s="91"/>
       <c r="I67" s="91"/>
@@ -4669,13 +4556,13 @@
       <c r="M67" s="91"/>
       <c r="N67" s="89"/>
     </row>
-    <row r="68" spans="2:14">
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B68" s="90"/>
       <c r="E68" s="83">
         <v>2</v>
       </c>
       <c r="F68" s="83" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H68" s="91"/>
       <c r="I68" s="91"/>
@@ -4685,14 +4572,14 @@
       <c r="M68" s="91"/>
       <c r="N68" s="89"/>
     </row>
-    <row r="69" spans="2:14">
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B69" s="90"/>
       <c r="E69" s="83">
         <f>1/E68</f>
         <v>0.5</v>
       </c>
       <c r="F69" s="83" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H69" s="91"/>
       <c r="I69" s="91"/>
@@ -4702,7 +4589,7 @@
       <c r="M69" s="91"/>
       <c r="N69" s="89"/>
     </row>
-    <row r="70" spans="2:14">
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B70" s="90"/>
       <c r="C70" s="91"/>
       <c r="D70" s="91"/>
@@ -4717,7 +4604,7 @@
       <c r="M70" s="91"/>
       <c r="N70" s="89"/>
     </row>
-    <row r="71" spans="2:14">
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B71" s="90"/>
       <c r="C71" s="91"/>
       <c r="D71" s="91"/>
@@ -4732,7 +4619,7 @@
       <c r="M71" s="91"/>
       <c r="N71" s="89"/>
     </row>
-    <row r="72" spans="2:14">
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B72" s="90"/>
       <c r="C72" s="91"/>
       <c r="D72" s="91"/>
@@ -4747,7 +4634,7 @@
       <c r="M72" s="91"/>
       <c r="N72" s="89"/>
     </row>
-    <row r="73" spans="2:14">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B73" s="90"/>
       <c r="C73" s="91"/>
       <c r="D73" s="91"/>
@@ -4762,45 +4649,45 @@
       <c r="M73" s="91"/>
       <c r="N73" s="89"/>
     </row>
-    <row r="74" spans="2:14">
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B74" s="90"/>
     </row>
-    <row r="75" spans="2:14">
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B75" s="90"/>
     </row>
-    <row r="76" spans="2:14">
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B76" s="90"/>
     </row>
-    <row r="77" spans="2:14">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B77" s="90"/>
     </row>
-    <row r="78" spans="2:14">
+    <row r="78" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B78" s="90"/>
     </row>
-    <row r="79" spans="2:14">
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="90"/>
     </row>
-    <row r="80" spans="2:14">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B80" s="90"/>
       <c r="C80" s="91" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D80" s="91"/>
       <c r="E80" s="91"/>
       <c r="F80" s="91"/>
       <c r="G80" s="91"/>
     </row>
-    <row r="81" spans="1:7">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B81" s="90"/>
       <c r="C81" s="91" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D81" s="91"/>
       <c r="E81" s="91"/>
       <c r="F81" s="91"/>
       <c r="G81" s="91"/>
     </row>
-    <row r="82" spans="1:7">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B82" s="90"/>
       <c r="C82" s="91"/>
       <c r="D82" s="91"/>
@@ -4808,7 +4695,7 @@
       <c r="F82" s="91"/>
       <c r="G82" s="91"/>
     </row>
-    <row r="83" spans="1:7">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B83" s="90"/>
       <c r="C83" s="91"/>
       <c r="D83" s="91"/>
@@ -4816,165 +4703,165 @@
         <v>444</v>
       </c>
       <c r="F83" s="91" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G83" s="91"/>
     </row>
-    <row r="84" spans="1:7">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B84" s="90"/>
     </row>
-    <row r="85" spans="1:7">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85" s="132"/>
       <c r="B85" s="133"/>
     </row>
-    <row r="86" spans="1:7">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86" s="132"/>
       <c r="B86" s="133"/>
     </row>
-    <row r="87" spans="1:7">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87" s="132"/>
       <c r="B87" s="133"/>
     </row>
-    <row r="88" spans="1:7">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88" s="132"/>
       <c r="B88" s="133"/>
     </row>
-    <row r="89" spans="1:7">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89" s="132"/>
       <c r="B89" s="133"/>
     </row>
-    <row r="90" spans="1:7">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90" s="132"/>
       <c r="B90" s="133"/>
     </row>
-    <row r="91" spans="1:7">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91" s="132"/>
       <c r="B91" s="133"/>
     </row>
-    <row r="92" spans="1:7">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92" s="132"/>
       <c r="B92" s="133"/>
     </row>
-    <row r="93" spans="1:7">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93" s="132"/>
       <c r="B93" s="133"/>
     </row>
-    <row r="94" spans="1:7">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94" s="132"/>
       <c r="B94" s="133"/>
     </row>
-    <row r="95" spans="1:7">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95" s="132"/>
       <c r="B95" s="133"/>
     </row>
-    <row r="96" spans="1:7">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96" s="132"/>
       <c r="B96" s="133"/>
     </row>
-    <row r="97" spans="1:6">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B97" s="90"/>
     </row>
-    <row r="98" spans="1:6">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B98" s="90"/>
     </row>
-    <row r="99" spans="1:6">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B99" s="90"/>
       <c r="C99" s="83" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B100" s="90"/>
       <c r="C100" s="83" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B101" s="90"/>
     </row>
-    <row r="102" spans="1:6">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B102" s="90"/>
       <c r="E102" s="83">
         <v>1.9</v>
       </c>
       <c r="F102" s="83" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B103" s="90"/>
       <c r="E103" s="83">
         <f>1/E102</f>
         <v>0.52631578947368418</v>
       </c>
       <c r="F103" s="83" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B104" s="90"/>
     </row>
-    <row r="105" spans="1:6">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B105" s="90"/>
     </row>
-    <row r="106" spans="1:6">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B106" s="90"/>
     </row>
-    <row r="107" spans="1:6">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B107" s="90"/>
     </row>
-    <row r="108" spans="1:6">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B108" s="90"/>
     </row>
-    <row r="109" spans="1:6">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A109" s="132"/>
       <c r="B109" s="133"/>
     </row>
-    <row r="110" spans="1:6">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A110" s="132"/>
       <c r="B110" s="133"/>
     </row>
-    <row r="111" spans="1:6">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A111" s="132"/>
       <c r="B111" s="133"/>
     </row>
-    <row r="112" spans="1:6">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A112" s="132"/>
       <c r="B112" s="133"/>
     </row>
-    <row r="113" spans="1:2">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" s="132"/>
       <c r="B113" s="133"/>
     </row>
-    <row r="114" spans="1:2">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" s="132"/>
       <c r="B114" s="133"/>
     </row>
-    <row r="115" spans="1:2">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" s="132"/>
       <c r="B115" s="133"/>
     </row>
-    <row r="116" spans="1:2">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" s="132"/>
       <c r="B116" s="133"/>
     </row>
-    <row r="117" spans="1:2">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117" s="132"/>
       <c r="B117" s="133"/>
     </row>
-    <row r="118" spans="1:2">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" s="132"/>
       <c r="B118" s="133"/>
     </row>
-    <row r="119" spans="1:2">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119" s="132"/>
       <c r="B119" s="133"/>
     </row>
-    <row r="120" spans="1:2">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120" s="132"/>
       <c r="B120" s="133"/>
     </row>
-    <row r="121" spans="1:2">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121" s="132"/>
       <c r="B121" s="133"/>
     </row>
@@ -4982,10 +4869,5 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/nodes_source_analyses/transport/transport_car_using_diesel_mix.converter.xlsx
+++ b/nodes_source_analyses/transport/transport_car_using_diesel_mix.converter.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27907"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28810"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dorinevandervlies/Projects/etdataset/nodes_source_analyses/transport/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michieldenhaan/Projects/etdataset/nodes_source_analyses/transport/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="19200" windowHeight="17540" tabRatio="762" activeTab="1"/>
+    <workbookView xWindow="10120" yWindow="460" windowWidth="19200" windowHeight="16240" tabRatio="762" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
@@ -36,7 +36,7 @@
     <definedName name="Wp_to_kWp">#REF!</definedName>
     <definedName name="WP_to_MWp">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="150001" iterate="1" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="103">
   <si>
     <t>Source</t>
   </si>
@@ -353,6 +353,48 @@
   <si>
     <t xml:space="preserve">This sheet summarizes all node attributes formatted in the way they are used by the Energy Transition Model. Use the Excel formulas to find the original data and sources for these numbers. You can also use this document to update the attribute value. Once you have finished updating, save this document and run rake import:node NODE="nodename" to update the node attributes on ETSource. 
 </t>
+  </si>
+  <si>
+    <t>Vehicle kilometers cars</t>
+  </si>
+  <si>
+    <t>CBS</t>
+  </si>
+  <si>
+    <t>2017</t>
+  </si>
+  <si>
+    <t>http://statline.cbs.nl/Statweb/publication/?DM=SLNL&amp;PA=80302NED&amp;D1=a&amp;D2=a&amp;D3=25&amp;HDR=T,G2&amp;STB=G1&amp;VW=T</t>
+  </si>
+  <si>
+    <t>Passenger kilometers cars</t>
+  </si>
+  <si>
+    <t>http://statline.cbs.nl/Statweb/publication/?DM=SLNL&amp;PA=83497ned&amp;D1=0&amp;D2=a&amp;D3=0&amp;D4=5&amp;HDR=T,G3&amp;STB=G1,G2&amp;VW=T</t>
+  </si>
+  <si>
+    <t>vehicle km</t>
+  </si>
+  <si>
+    <t>mln vehicle km</t>
+  </si>
+  <si>
+    <t>passenger km</t>
+  </si>
+  <si>
+    <t>mld passenger km</t>
+  </si>
+  <si>
+    <t>passenger km/vehicle km</t>
+  </si>
+  <si>
+    <t>passenger km/MJ</t>
+  </si>
+  <si>
+    <t>output.passenger_kms</t>
+  </si>
+  <si>
+    <t>pkm/MJ</t>
   </si>
 </sst>
 </file>
@@ -551,6 +593,7 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -558,6 +601,7 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -565,6 +609,7 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -572,34 +617,40 @@
       <sz val="16"/>
       <color rgb="FF1F497D"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <i/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="13">
@@ -1140,7 +1191,7 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="152">
+  <cellXfs count="157">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="26" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="27" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1327,12 +1378,6 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="34" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="34" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="20" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1374,6 +1419,17 @@
     </xf>
     <xf numFmtId="0" fontId="32" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="30" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="253">
@@ -1801,8 +1857,8 @@
       <xdr:rowOff>34684</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>635000</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>84</xdr:row>
       <xdr:rowOff>152399</xdr:rowOff>
     </xdr:to>
@@ -1880,7 +1936,7 @@
       <xdr:col>25</xdr:col>
       <xdr:colOff>393700</xdr:colOff>
       <xdr:row>158</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1905,6 +1961,196 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>316173</xdr:colOff>
+      <xdr:row>157</xdr:row>
+      <xdr:rowOff>158467</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>36350</xdr:colOff>
+      <xdr:row>179</xdr:row>
+      <xdr:rowOff>4113</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="9" name="Group 8"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="7961573" y="32073567"/>
+          <a:ext cx="10997777" cy="4366846"/>
+          <a:chOff x="9231573" y="32137067"/>
+          <a:chExt cx="12902777" cy="4417646"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="10" name="Picture 9"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9231573" y="32137067"/>
+            <a:ext cx="12902777" cy="4417646"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="11" name="Rectangle 10"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="13195110" y="34022352"/>
+            <a:ext cx="1173708" cy="552735"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="FFC000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="3">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="2">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>183</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>203</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="12" name="Group 11"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="7899400" y="37299900"/>
+          <a:ext cx="14325601" cy="4152900"/>
+          <a:chOff x="9702800" y="37896800"/>
+          <a:chExt cx="16776701" cy="4152900"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="13" name="Picture 12"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9702800" y="37896800"/>
+            <a:ext cx="16776701" cy="4152900"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="14" name="Rectangle 13"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="13367223" y="40003862"/>
+            <a:ext cx="1654792" cy="368490"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="FFC000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="3">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="2">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2354,10 +2600,10 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.140625" style="30" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" style="21" customWidth="1"/>
-    <col min="3" max="3" width="38.42578125" style="21" customWidth="1"/>
-    <col min="4" max="16384" width="10.7109375" style="21"/>
+    <col min="1" max="1" width="4.1640625" style="30" customWidth="1"/>
+    <col min="2" max="2" width="11.5" style="21" customWidth="1"/>
+    <col min="3" max="3" width="38.5" style="21" customWidth="1"/>
+    <col min="4" max="16384" width="10.83203125" style="21"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="28" customFormat="1" x14ac:dyDescent="0.2">
@@ -2531,60 +2777,60 @@
   </sheetPr>
   <dimension ref="B1:J20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.28515625" style="35" customWidth="1"/>
-    <col min="2" max="2" width="2.7109375" style="35" customWidth="1"/>
-    <col min="3" max="3" width="36.140625" style="35" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" style="35" customWidth="1"/>
-    <col min="5" max="5" width="17.42578125" style="35" customWidth="1"/>
-    <col min="6" max="6" width="4.5703125" style="35" customWidth="1"/>
-    <col min="7" max="7" width="39.42578125" style="35" customWidth="1"/>
-    <col min="8" max="8" width="5.140625" style="35" customWidth="1"/>
-    <col min="9" max="9" width="42.42578125" style="35" customWidth="1"/>
-    <col min="10" max="10" width="5.42578125" style="35" customWidth="1"/>
-    <col min="11" max="16384" width="10.7109375" style="35"/>
+    <col min="1" max="1" width="3.33203125" style="35" customWidth="1"/>
+    <col min="2" max="2" width="2.6640625" style="35" customWidth="1"/>
+    <col min="3" max="3" width="36.1640625" style="35" customWidth="1"/>
+    <col min="4" max="4" width="12.5" style="35" customWidth="1"/>
+    <col min="5" max="5" width="17.5" style="35" customWidth="1"/>
+    <col min="6" max="6" width="4.5" style="35" customWidth="1"/>
+    <col min="7" max="7" width="39.5" style="35" customWidth="1"/>
+    <col min="8" max="8" width="5.1640625" style="35" customWidth="1"/>
+    <col min="9" max="9" width="42.5" style="35" customWidth="1"/>
+    <col min="10" max="10" width="5.5" style="35" customWidth="1"/>
+    <col min="11" max="16384" width="10.83203125" style="35"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:10" x14ac:dyDescent="0.2">
       <c r="D1" s="36"/>
     </row>
     <row r="2" spans="2:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="143" t="s">
+      <c r="B2" s="141" t="s">
         <v>88</v>
       </c>
-      <c r="C2" s="144"/>
-      <c r="D2" s="144"/>
-      <c r="E2" s="144"/>
-      <c r="F2" s="145"/>
+      <c r="C2" s="142"/>
+      <c r="D2" s="142"/>
+      <c r="E2" s="142"/>
+      <c r="F2" s="143"/>
       <c r="G2" s="36"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B3" s="146"/>
-      <c r="C3" s="147"/>
-      <c r="D3" s="147"/>
-      <c r="E3" s="147"/>
-      <c r="F3" s="148"/>
+      <c r="B3" s="144"/>
+      <c r="C3" s="145"/>
+      <c r="D3" s="145"/>
+      <c r="E3" s="145"/>
+      <c r="F3" s="146"/>
       <c r="G3" s="36"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B4" s="146"/>
-      <c r="C4" s="147"/>
-      <c r="D4" s="147"/>
-      <c r="E4" s="147"/>
-      <c r="F4" s="148"/>
+      <c r="B4" s="144"/>
+      <c r="C4" s="145"/>
+      <c r="D4" s="145"/>
+      <c r="E4" s="145"/>
+      <c r="F4" s="146"/>
       <c r="G4" s="36"/>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B5" s="149"/>
-      <c r="C5" s="150"/>
-      <c r="D5" s="150"/>
-      <c r="E5" s="150"/>
-      <c r="F5" s="151"/>
+      <c r="B5" s="147"/>
+      <c r="C5" s="148"/>
+      <c r="D5" s="148"/>
+      <c r="E5" s="148"/>
+      <c r="F5" s="149"/>
     </row>
     <row r="6" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="103"/>
@@ -2656,16 +2902,16 @@
       <c r="D11" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="E11" s="142">
+      <c r="E11" s="140">
         <f>'Research data'!H7</f>
-        <v>0.52631578947368418</v>
+        <v>0.69865659105365974</v>
       </c>
       <c r="F11" s="39"/>
       <c r="G11" s="128" t="s">
         <v>77</v>
       </c>
       <c r="H11" s="31"/>
-      <c r="I11" s="141" t="s">
+      <c r="I11" s="139" t="s">
         <v>87</v>
       </c>
       <c r="J11" s="14"/>
@@ -2763,34 +3009,34 @@
   </sheetPr>
   <dimension ref="B2:V14"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="V7" sqref="V7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="3.42578125" style="45" customWidth="1"/>
-    <col min="3" max="3" width="35.140625" style="45" customWidth="1"/>
-    <col min="4" max="4" width="16.5703125" style="45" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" style="45" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" style="45" customWidth="1"/>
-    <col min="7" max="7" width="3.28515625" style="45" customWidth="1"/>
-    <col min="8" max="8" width="9.5703125" style="45" customWidth="1"/>
-    <col min="9" max="9" width="2.5703125" style="45" customWidth="1"/>
-    <col min="10" max="10" width="10.42578125" style="45" customWidth="1"/>
-    <col min="11" max="11" width="2.42578125" style="45" customWidth="1"/>
-    <col min="12" max="12" width="9.28515625" style="45" customWidth="1"/>
-    <col min="13" max="13" width="2.42578125" style="45" customWidth="1"/>
-    <col min="14" max="14" width="8.5703125" style="45" customWidth="1"/>
-    <col min="15" max="15" width="2.140625" style="45" customWidth="1"/>
-    <col min="16" max="16" width="9.85546875" style="45" customWidth="1"/>
-    <col min="17" max="17" width="2.85546875" style="45" customWidth="1"/>
-    <col min="18" max="18" width="10.85546875" style="45" customWidth="1"/>
-    <col min="19" max="19" width="2.28515625" style="45" customWidth="1"/>
-    <col min="20" max="20" width="10.85546875" style="45" customWidth="1"/>
-    <col min="21" max="21" width="2.42578125" style="45" customWidth="1"/>
-    <col min="22" max="22" width="51.28515625" style="45" customWidth="1"/>
-    <col min="23" max="16384" width="10.7109375" style="45"/>
+    <col min="1" max="2" width="3.5" style="45" customWidth="1"/>
+    <col min="3" max="3" width="35.1640625" style="45" customWidth="1"/>
+    <col min="4" max="4" width="16.5" style="45" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="13.83203125" style="45" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5" style="45" customWidth="1"/>
+    <col min="7" max="7" width="3.33203125" style="45" customWidth="1"/>
+    <col min="8" max="8" width="9.5" style="45" customWidth="1"/>
+    <col min="9" max="9" width="2.5" style="45" customWidth="1"/>
+    <col min="10" max="10" width="10.5" style="45" customWidth="1"/>
+    <col min="11" max="11" width="2.5" style="45" customWidth="1"/>
+    <col min="12" max="12" width="9.33203125" style="45" customWidth="1"/>
+    <col min="13" max="13" width="2.5" style="45" customWidth="1"/>
+    <col min="14" max="14" width="8.5" style="45" customWidth="1"/>
+    <col min="15" max="15" width="2.1640625" style="45" customWidth="1"/>
+    <col min="16" max="16" width="9.83203125" style="45" customWidth="1"/>
+    <col min="17" max="17" width="2.83203125" style="45" customWidth="1"/>
+    <col min="18" max="18" width="10.83203125" style="45" customWidth="1"/>
+    <col min="19" max="19" width="2.33203125" style="45" customWidth="1"/>
+    <col min="20" max="20" width="10.83203125" style="45" customWidth="1"/>
+    <col min="21" max="21" width="2.5" style="45" customWidth="1"/>
+    <col min="22" max="22" width="51.33203125" style="45" customWidth="1"/>
+    <col min="23" max="16384" width="10.83203125" style="45"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:22" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
@@ -2906,18 +3152,18 @@
     </row>
     <row r="7" spans="2:22" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B7" s="48"/>
-      <c r="C7" s="130" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" s="57"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="131" t="s">
-        <v>76</v>
+      <c r="C7" s="155" t="s">
+        <v>101</v>
+      </c>
+      <c r="D7" s="155"/>
+      <c r="E7" s="155"/>
+      <c r="F7" s="156" t="s">
+        <v>102</v>
       </c>
       <c r="G7" s="96"/>
-      <c r="H7" s="134">
+      <c r="H7" s="132">
         <f>T7</f>
-        <v>0.52631578947368418</v>
+        <v>0.69865659105365974</v>
       </c>
       <c r="I7" s="53"/>
       <c r="J7" s="53"/>
@@ -2926,19 +3172,19 @@
       <c r="M7" s="53"/>
       <c r="N7" s="63"/>
       <c r="O7" s="49"/>
-      <c r="P7" s="134">
-        <f>Notes!E69</f>
-        <v>0.5</v>
+      <c r="P7" s="132">
+        <f>Notes!E168</f>
+        <v>0.66372376150097678</v>
       </c>
       <c r="Q7" s="49"/>
       <c r="R7" s="49"/>
       <c r="S7" s="49"/>
-      <c r="T7" s="134">
-        <f>Notes!E103</f>
-        <v>0.52631578947368418</v>
+      <c r="T7" s="132">
+        <f>Notes!E106</f>
+        <v>0.69865659105365974</v>
       </c>
       <c r="U7" s="49"/>
-      <c r="V7" s="140" t="s">
+      <c r="V7" s="138" t="s">
         <v>86</v>
       </c>
     </row>
@@ -3154,24 +3400,24 @@
   <sheetPr codeName="Sheet4" enableFormatConditionsCalculation="0">
     <tabColor theme="6" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="A1:J23"/>
+  <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F23" sqref="F23:G23"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24:XFD26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="33.140625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="33.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.42578125" style="71" customWidth="1"/>
+    <col min="1" max="1" width="3.5" style="71" customWidth="1"/>
     <col min="2" max="2" width="4" style="71" customWidth="1"/>
-    <col min="3" max="3" width="27.85546875" style="71" customWidth="1"/>
-    <col min="4" max="4" width="16.140625" style="71" customWidth="1"/>
-    <col min="5" max="5" width="10.28515625" style="71" customWidth="1"/>
-    <col min="6" max="7" width="13.28515625" style="71" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="76" customWidth="1"/>
-    <col min="9" max="9" width="32.5703125" style="76" customWidth="1"/>
-    <col min="10" max="10" width="98.42578125" style="71" customWidth="1"/>
-    <col min="11" max="16384" width="33.140625" style="71"/>
+    <col min="3" max="3" width="27.83203125" style="71" customWidth="1"/>
+    <col min="4" max="4" width="16.1640625" style="71" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" style="71" customWidth="1"/>
+    <col min="6" max="7" width="13.33203125" style="71" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="76" customWidth="1"/>
+    <col min="9" max="9" width="32.5" style="76" customWidth="1"/>
+    <col min="10" max="10" width="98.5" style="71" customWidth="1"/>
+    <col min="11" max="16384" width="33.1640625" style="71"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
@@ -3472,43 +3718,89 @@
       <c r="B21" s="74"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" s="135"/>
-      <c r="B22" s="136"/>
-      <c r="C22" s="135"/>
-      <c r="D22" s="135"/>
-      <c r="E22" s="135"/>
-      <c r="F22" s="135"/>
-      <c r="G22" s="135"/>
-      <c r="H22" s="137"/>
-      <c r="I22" s="137"/>
-      <c r="J22" s="135"/>
+      <c r="A22" s="133"/>
+      <c r="B22" s="134"/>
+      <c r="C22" s="133"/>
+      <c r="D22" s="133"/>
+      <c r="E22" s="133"/>
+      <c r="F22" s="133"/>
+      <c r="G22" s="133"/>
+      <c r="H22" s="135"/>
+      <c r="I22" s="135"/>
+      <c r="J22" s="133"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" s="132"/>
-      <c r="B23" s="133"/>
-      <c r="C23" s="138" t="s">
+      <c r="A23" s="130"/>
+      <c r="B23" s="131"/>
+      <c r="C23" s="136" t="s">
         <v>77</v>
       </c>
       <c r="D23" s="91" t="s">
         <v>83</v>
       </c>
-      <c r="E23" s="132" t="s">
+      <c r="E23" s="130" t="s">
         <v>7</v>
       </c>
-      <c r="F23" s="132">
+      <c r="F23" s="130">
         <v>2014</v>
       </c>
-      <c r="G23" s="132">
+      <c r="G23" s="130">
         <v>2014</v>
       </c>
-      <c r="H23" s="139">
+      <c r="H23" s="137">
         <v>42326</v>
       </c>
-      <c r="I23" s="132" t="s">
+      <c r="I23" s="130" t="s">
         <v>84</v>
       </c>
       <c r="J23" s="83" t="s">
         <v>85</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" s="150" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C24" s="150" t="s">
+        <v>89</v>
+      </c>
+      <c r="D24" s="150" t="s">
+        <v>90</v>
+      </c>
+      <c r="E24" s="150" t="s">
+        <v>7</v>
+      </c>
+      <c r="G24" s="150">
+        <v>2015</v>
+      </c>
+      <c r="H24" s="151" t="s">
+        <v>91</v>
+      </c>
+      <c r="I24" s="151"/>
+      <c r="J24" s="150" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" s="150" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H25" s="151"/>
+      <c r="I25" s="151"/>
+    </row>
+    <row r="26" spans="1:10" s="150" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C26" s="150" t="s">
+        <v>93</v>
+      </c>
+      <c r="D26" s="150" t="s">
+        <v>90</v>
+      </c>
+      <c r="E26" s="150" t="s">
+        <v>7</v>
+      </c>
+      <c r="G26" s="150">
+        <v>2015</v>
+      </c>
+      <c r="H26" s="151" t="s">
+        <v>91</v>
+      </c>
+      <c r="I26" s="151"/>
+      <c r="J26" s="150" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -3522,23 +3814,23 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="6" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="A1:N121"/>
+  <dimension ref="A1:N204"/>
   <sheetViews>
-    <sheetView topLeftCell="A69" workbookViewId="0">
-      <selection activeCell="C101" sqref="C101"/>
+    <sheetView tabSelected="1" topLeftCell="A140" workbookViewId="0">
+      <selection activeCell="H168" sqref="H168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" style="83" customWidth="1"/>
-    <col min="2" max="2" width="3.42578125" style="83" customWidth="1"/>
-    <col min="3" max="3" width="9.42578125" style="83" customWidth="1"/>
-    <col min="4" max="4" width="3.140625" style="83" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" style="83" customWidth="1"/>
-    <col min="6" max="6" width="3.85546875" style="83" customWidth="1"/>
-    <col min="7" max="13" width="10.7109375" style="83"/>
-    <col min="14" max="14" width="7.140625" style="83" customWidth="1"/>
-    <col min="15" max="16384" width="10.7109375" style="83"/>
+    <col min="1" max="1" width="3.6640625" style="83" customWidth="1"/>
+    <col min="2" max="2" width="3.5" style="83" customWidth="1"/>
+    <col min="3" max="3" width="9.5" style="83" customWidth="1"/>
+    <col min="4" max="4" width="13.1640625" style="83" customWidth="1"/>
+    <col min="5" max="5" width="12.5" style="83" customWidth="1"/>
+    <col min="6" max="6" width="3.83203125" style="83" customWidth="1"/>
+    <col min="7" max="13" width="10.83203125" style="83"/>
+    <col min="14" max="14" width="7.1640625" style="83" customWidth="1"/>
+    <col min="15" max="16384" width="10.83203125" style="83"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
@@ -4711,52 +5003,52 @@
       <c r="B84" s="90"/>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A85" s="132"/>
-      <c r="B85" s="133"/>
+      <c r="A85" s="130"/>
+      <c r="B85" s="131"/>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A86" s="132"/>
-      <c r="B86" s="133"/>
+      <c r="A86" s="130"/>
+      <c r="B86" s="131"/>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A87" s="132"/>
-      <c r="B87" s="133"/>
+      <c r="A87" s="130"/>
+      <c r="B87" s="131"/>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A88" s="132"/>
-      <c r="B88" s="133"/>
+      <c r="A88" s="130"/>
+      <c r="B88" s="131"/>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A89" s="132"/>
-      <c r="B89" s="133"/>
+      <c r="A89" s="130"/>
+      <c r="B89" s="131"/>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A90" s="132"/>
-      <c r="B90" s="133"/>
+      <c r="A90" s="130"/>
+      <c r="B90" s="131"/>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A91" s="132"/>
-      <c r="B91" s="133"/>
+      <c r="A91" s="130"/>
+      <c r="B91" s="131"/>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A92" s="132"/>
-      <c r="B92" s="133"/>
+      <c r="A92" s="130"/>
+      <c r="B92" s="131"/>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A93" s="132"/>
-      <c r="B93" s="133"/>
+      <c r="A93" s="130"/>
+      <c r="B93" s="131"/>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A94" s="132"/>
-      <c r="B94" s="133"/>
+      <c r="A94" s="130"/>
+      <c r="B94" s="131"/>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A95" s="132"/>
-      <c r="B95" s="133"/>
+      <c r="A95" s="130"/>
+      <c r="B95" s="131"/>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A96" s="132"/>
-      <c r="B96" s="133"/>
+      <c r="A96" s="130"/>
+      <c r="B96" s="131"/>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B97" s="90"/>
@@ -4806,6 +5098,14 @@
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B106" s="90"/>
+      <c r="D106" s="83" t="str">
+        <f>Dashboard!C11</f>
+        <v>output.car_kms</v>
+      </c>
+      <c r="E106" s="83">
+        <f>E103*E164</f>
+        <v>0.69865659105365974</v>
+      </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B107" s="90"/>
@@ -4814,56 +5114,249 @@
       <c r="B108" s="90"/>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A109" s="132"/>
-      <c r="B109" s="133"/>
+      <c r="A109" s="130"/>
+      <c r="B109" s="131"/>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A110" s="132"/>
-      <c r="B110" s="133"/>
+      <c r="A110" s="130"/>
+      <c r="B110" s="131"/>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A111" s="132"/>
-      <c r="B111" s="133"/>
+      <c r="A111" s="130"/>
+      <c r="B111" s="131"/>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A112" s="132"/>
-      <c r="B112" s="133"/>
+      <c r="A112" s="130"/>
+      <c r="B112" s="131"/>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A113" s="132"/>
-      <c r="B113" s="133"/>
+      <c r="A113" s="130"/>
+      <c r="B113" s="131"/>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A114" s="132"/>
-      <c r="B114" s="133"/>
+      <c r="A114" s="130"/>
+      <c r="B114" s="131"/>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A115" s="132"/>
-      <c r="B115" s="133"/>
+      <c r="A115" s="130"/>
+      <c r="B115" s="131"/>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A116" s="132"/>
-      <c r="B116" s="133"/>
+      <c r="A116" s="130"/>
+      <c r="B116" s="131"/>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A117" s="132"/>
-      <c r="B117" s="133"/>
+      <c r="A117" s="130"/>
+      <c r="B117" s="131"/>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A118" s="132"/>
-      <c r="B118" s="133"/>
+      <c r="A118" s="130"/>
+      <c r="B118" s="131"/>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A119" s="132"/>
-      <c r="B119" s="133"/>
+      <c r="A119" s="130"/>
+      <c r="B119" s="131"/>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A120" s="132"/>
-      <c r="B120" s="133"/>
+      <c r="A120" s="130"/>
+      <c r="B120" s="131"/>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A121" s="132"/>
-      <c r="B121" s="133"/>
+      <c r="A121" s="130"/>
+      <c r="B121" s="131"/>
+    </row>
+    <row r="158" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="159" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B159" s="90"/>
+      <c r="C159" s="87" t="s">
+        <v>90</v>
+      </c>
+      <c r="D159" s="83" t="s">
+        <v>95</v>
+      </c>
+      <c r="E159" s="152">
+        <v>105088.9</v>
+      </c>
+      <c r="F159" s="83" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="160" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B160" s="90"/>
+      <c r="E160" s="83">
+        <f>E159*1000000</f>
+        <v>105088900000</v>
+      </c>
+      <c r="F160" s="83" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="161" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B161" s="90"/>
+      <c r="D161" s="83" t="s">
+        <v>97</v>
+      </c>
+      <c r="E161" s="153">
+        <f>(97.3+42.2)</f>
+        <v>139.5</v>
+      </c>
+      <c r="F161" s="83" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="162" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B162" s="90"/>
+      <c r="E162" s="83">
+        <f>E161*1000000000</f>
+        <v>139500000000</v>
+      </c>
+      <c r="F162" s="83" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="163" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B163" s="90"/>
+    </row>
+    <row r="164" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B164" s="90"/>
+      <c r="E164" s="154">
+        <f>E162/E160</f>
+        <v>1.3274475230019536</v>
+      </c>
+      <c r="F164" s="83" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="165" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B165" s="90"/>
+    </row>
+    <row r="166" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B166" s="90"/>
+    </row>
+    <row r="167" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B167" s="90"/>
+    </row>
+    <row r="168" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B168" s="90"/>
+      <c r="D168" s="83" t="str">
+        <f>Dashboard!C11</f>
+        <v>output.car_kms</v>
+      </c>
+      <c r="E168" s="83">
+        <f>E164*E69</f>
+        <v>0.66372376150097678</v>
+      </c>
+      <c r="F168" s="83" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="169" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B169" s="90"/>
+    </row>
+    <row r="170" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B170" s="90"/>
+    </row>
+    <row r="171" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B171" s="90"/>
+    </row>
+    <row r="172" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B172" s="90"/>
+    </row>
+    <row r="173" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B173" s="90"/>
+    </row>
+    <row r="174" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B174" s="90"/>
+    </row>
+    <row r="175" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B175" s="90"/>
+    </row>
+    <row r="176" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B176" s="90"/>
+    </row>
+    <row r="177" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B177" s="90"/>
+    </row>
+    <row r="178" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B178" s="90"/>
+    </row>
+    <row r="179" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B179" s="90"/>
+    </row>
+    <row r="180" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B180" s="90"/>
+    </row>
+    <row r="181" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B181" s="90"/>
+    </row>
+    <row r="182" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B182" s="90"/>
+    </row>
+    <row r="183" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B183" s="90"/>
+    </row>
+    <row r="184" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B184" s="90"/>
+    </row>
+    <row r="185" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B185" s="90"/>
+    </row>
+    <row r="186" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B186" s="90"/>
+    </row>
+    <row r="187" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B187" s="90"/>
+    </row>
+    <row r="188" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B188" s="90"/>
+    </row>
+    <row r="189" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B189" s="90"/>
+    </row>
+    <row r="190" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B190" s="90"/>
+    </row>
+    <row r="191" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B191" s="90"/>
+    </row>
+    <row r="192" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B192" s="90"/>
+    </row>
+    <row r="193" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B193" s="90"/>
+    </row>
+    <row r="194" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B194" s="90"/>
+    </row>
+    <row r="195" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B195" s="90"/>
+    </row>
+    <row r="196" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B196" s="90"/>
+    </row>
+    <row r="197" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B197" s="90"/>
+    </row>
+    <row r="198" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B198" s="90"/>
+    </row>
+    <row r="199" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B199" s="90"/>
+    </row>
+    <row r="200" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B200" s="90"/>
+    </row>
+    <row r="201" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B201" s="90"/>
+    </row>
+    <row r="202" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B202" s="90"/>
+    </row>
+    <row r="203" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B203" s="90"/>
+    </row>
+    <row r="204" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B204" s="90"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
